--- a/PE_HEA.xlsx
+++ b/PE_HEA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deivi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deivi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A918C0-F1CC-4A73-8B2F-878BE3A66AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A98FBDD-046A-4266-BA59-BB1F93D752E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>LOTE</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>MAPFRE PERU</t>
+  </si>
+  <si>
+    <t>PE-HEA-CLF-FO-002</t>
+  </si>
+  <si>
+    <t>1 de 1</t>
   </si>
 </sst>
 </file>
@@ -555,6 +561,120 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -567,24 +687,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -602,108 +710,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -744,74 +750,34 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>343828</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>37174</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>46464</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>92927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1161585</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>92930</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1178989</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>99914</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1" descr="Texto, Carta, Pizarra&#10;&#10;Descripción generada automáticamente">
+        <xdr:cNvPr id="4" name="Imagen 3" descr="Resultado de imagen para IBT GROUP">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD0695E5-0E7B-4A3F-B0B9-F6E171018BE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F95C8A8C-53AF-48DE-A651-9D7EA5ADDE9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3940096" y="11615857"/>
-          <a:ext cx="2406806" cy="1366024"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>120804</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>18585</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1161586</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>130098</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2" descr="Texto, Logotipo, nombre de la empresa&#10;&#10;Descripción generada automáticamente">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A6829F6-0D73-45EB-8F86-5101B4252409}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -825,8 +791,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="120804" y="18585"/>
-          <a:ext cx="1273099" cy="715537"/>
+          <a:off x="46464" y="92927"/>
+          <a:ext cx="1364842" cy="611011"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -835,6 +801,68 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>306660</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>55756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>969907</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>141414</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1303D40-79A9-4B00-A923-57EAD1C41BB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="70417" t="61015" r="6891" b="28051"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3902928" y="11634439"/>
+          <a:ext cx="2252296" cy="1395926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1152,8 +1180,8 @@
   </sheetPr>
   <dimension ref="A1:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="T66" sqref="T66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1177,94 +1205,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="62" t="s">
+      <c r="A1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="64"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="36"/>
       <c r="N1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="71"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="73"/>
+      <c r="O1" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="45"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
       <c r="N2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
+      <c r="O2" s="46">
+        <v>43987</v>
+      </c>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
     </row>
     <row r="3" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="67"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
       <c r="N3" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
+      <c r="O3" s="47">
+        <v>0</v>
+      </c>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
     </row>
     <row r="4" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="70"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="42"/>
       <c r="N4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
+      <c r="O4" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
     </row>
     <row r="5" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
@@ -1272,13 +1308,13 @@
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
       <c r="F6" s="11"/>
       <c r="G6" s="9"/>
       <c r="H6" s="12"/>
@@ -1290,12 +1326,12 @@
       <c r="N6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="48" t="s">
+      <c r="O6" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="49"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="63"/>
       <c r="S6" s="14"/>
       <c r="T6" s="19" t="e">
         <f>+#REF!</f>
@@ -1308,107 +1344,107 @@
     </row>
     <row r="7" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="N8" s="35" t="s">
+      <c r="B8" s="67"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="N8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
       <c r="R8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="N9" s="35" t="s">
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="N9" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
       <c r="R9" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="N10" s="35" t="s">
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="N10" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
       <c r="R10" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="35" t="s">
+      <c r="B11" s="71"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
       <c r="G11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="35" t="s">
+      <c r="N11" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
       <c r="R11" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="35" t="s">
+      <c r="A12" s="73"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="35" t="s">
+      <c r="N12" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
       <c r="R12" s="4" t="s">
         <v>9</v>
       </c>
@@ -1425,13 +1461,13 @@
       <c r="B14" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="66"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1448,22 +1484,22 @@
       <c r="O14" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="P14" s="44" t="s">
+      <c r="P14" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
     </row>
     <row r="15" spans="1:22" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>1</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
@@ -1475,20 +1511,20 @@
       <c r="M15" s="7"/>
       <c r="N15" s="17"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
     </row>
     <row r="16" spans="1:22" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>2</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="56"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
@@ -1497,20 +1533,20 @@
       <c r="M16" s="25"/>
       <c r="N16" s="17"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
     </row>
     <row r="17" spans="1:24" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>3</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="56"/>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
@@ -1519,20 +1555,20 @@
       <c r="M17" s="25"/>
       <c r="N17" s="17"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
     </row>
     <row r="18" spans="1:24" s="18" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>4</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="56"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
@@ -1541,20 +1577,20 @@
       <c r="M18" s="25"/>
       <c r="N18" s="17"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
     </row>
     <row r="19" spans="1:24" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>5</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="56"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
@@ -1563,9 +1599,9 @@
       <c r="M19" s="25"/>
       <c r="N19" s="17"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
       <c r="X19" s="18" t="s">
         <v>33</v>
       </c>
@@ -1575,11 +1611,11 @@
         <v>6</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="56"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
@@ -1588,20 +1624,20 @@
       <c r="M20" s="25"/>
       <c r="N20" s="17"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
     </row>
     <row r="21" spans="1:24" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>7</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="56"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
@@ -1610,9 +1646,9 @@
       <c r="M21" s="25"/>
       <c r="N21" s="17"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
       <c r="X21" s="18" t="s">
         <v>35</v>
       </c>
@@ -1622,11 +1658,11 @@
         <v>8</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="56"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
@@ -1635,9 +1671,9 @@
       <c r="M22" s="25"/>
       <c r="N22" s="17"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
       <c r="U22" s="18" t="s">
         <v>26</v>
       </c>
@@ -1647,11 +1683,11 @@
         <v>9</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="56"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
@@ -1660,20 +1696,20 @@
       <c r="M23" s="25"/>
       <c r="N23" s="17"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
     </row>
     <row r="24" spans="1:24" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>10</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="56"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
@@ -1682,20 +1718,20 @@
       <c r="M24" s="25"/>
       <c r="N24" s="17"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
     </row>
     <row r="25" spans="1:24" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>11</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="32"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="56"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
@@ -1704,20 +1740,20 @@
       <c r="M25" s="25"/>
       <c r="N25" s="17"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
     </row>
     <row r="26" spans="1:24" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>12</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="32"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="56"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
@@ -1726,20 +1762,20 @@
       <c r="M26" s="25"/>
       <c r="N26" s="17"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
     </row>
     <row r="27" spans="1:24" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>13</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="32"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="56"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
@@ -1748,20 +1784,20 @@
       <c r="M27" s="25"/>
       <c r="N27" s="17"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
     </row>
     <row r="28" spans="1:24" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>14</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="32"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="56"/>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
@@ -1770,20 +1806,20 @@
       <c r="M28" s="25"/>
       <c r="N28" s="17"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
     </row>
     <row r="29" spans="1:24" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>15</v>
       </c>
       <c r="B29" s="7"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="32"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="56"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
@@ -1792,20 +1828,20 @@
       <c r="M29" s="25"/>
       <c r="N29" s="17"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
     </row>
     <row r="30" spans="1:24" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>16</v>
       </c>
       <c r="B30" s="7"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="32"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="56"/>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
@@ -1814,20 +1850,20 @@
       <c r="M30" s="25"/>
       <c r="N30" s="17"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
     </row>
     <row r="31" spans="1:24" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>17</v>
       </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="32"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="56"/>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
@@ -1836,20 +1872,20 @@
       <c r="M31" s="25"/>
       <c r="N31" s="17"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
     </row>
     <row r="32" spans="1:24" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>18</v>
       </c>
       <c r="B32" s="7"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="32"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="56"/>
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
@@ -1858,20 +1894,20 @@
       <c r="M32" s="25"/>
       <c r="N32" s="17"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
     </row>
     <row r="33" spans="1:18" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>19</v>
       </c>
       <c r="B33" s="7"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="52"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="53"/>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
@@ -1880,20 +1916,20 @@
       <c r="M33" s="25"/>
       <c r="N33" s="17"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
     </row>
     <row r="34" spans="1:18" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>20</v>
       </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="52"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="53"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
@@ -1902,20 +1938,20 @@
       <c r="M34" s="25"/>
       <c r="N34" s="17"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="45"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
     </row>
     <row r="35" spans="1:18" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>21</v>
       </c>
       <c r="B35" s="7"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="52"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="53"/>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
@@ -1924,20 +1960,20 @@
       <c r="M35" s="25"/>
       <c r="N35" s="17"/>
       <c r="O35" s="7"/>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="45"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
     </row>
     <row r="36" spans="1:18" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>22</v>
       </c>
       <c r="B36" s="7"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="52"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="53"/>
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
@@ -1946,20 +1982,20 @@
       <c r="M36" s="25"/>
       <c r="N36" s="17"/>
       <c r="O36" s="7"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="45"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
     </row>
     <row r="37" spans="1:18" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>23</v>
       </c>
       <c r="B37" s="7"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="52"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="53"/>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
@@ -1968,20 +2004,20 @@
       <c r="M37" s="25"/>
       <c r="N37" s="17"/>
       <c r="O37" s="7"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="45"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
     </row>
     <row r="38" spans="1:18" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>24</v>
       </c>
       <c r="B38" s="7"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="52"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="53"/>
       <c r="H38" s="16"/>
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
@@ -1990,20 +2026,20 @@
       <c r="M38" s="25"/>
       <c r="N38" s="17"/>
       <c r="O38" s="7"/>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="45"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
     </row>
     <row r="39" spans="1:18" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>25</v>
       </c>
       <c r="B39" s="7"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="52"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="53"/>
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
@@ -2012,20 +2048,20 @@
       <c r="M39" s="25"/>
       <c r="N39" s="17"/>
       <c r="O39" s="7"/>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="45"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
     </row>
     <row r="40" spans="1:18" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>26</v>
       </c>
       <c r="B40" s="7"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="52"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="53"/>
       <c r="H40" s="16"/>
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>
@@ -2034,20 +2070,20 @@
       <c r="M40" s="25"/>
       <c r="N40" s="17"/>
       <c r="O40" s="7"/>
-      <c r="P40" s="45"/>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="45"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
     </row>
     <row r="41" spans="1:18" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>27</v>
       </c>
       <c r="B41" s="7"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="52"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="53"/>
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
       <c r="J41" s="16"/>
@@ -2056,20 +2092,20 @@
       <c r="M41" s="25"/>
       <c r="N41" s="17"/>
       <c r="O41" s="7"/>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="45"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
     </row>
     <row r="42" spans="1:18" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>28</v>
       </c>
       <c r="B42" s="7"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="52"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="53"/>
       <c r="H42" s="16"/>
       <c r="I42" s="16"/>
       <c r="J42" s="16"/>
@@ -2078,20 +2114,20 @@
       <c r="M42" s="25"/>
       <c r="N42" s="17"/>
       <c r="O42" s="7"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="45"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
     </row>
     <row r="43" spans="1:18" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>29</v>
       </c>
       <c r="B43" s="7"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="52"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="53"/>
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
@@ -2100,20 +2136,20 @@
       <c r="M43" s="25"/>
       <c r="N43" s="17"/>
       <c r="O43" s="7"/>
-      <c r="P43" s="45"/>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="45"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
     </row>
     <row r="44" spans="1:18" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>30</v>
       </c>
       <c r="B44" s="7"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="52"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="53"/>
       <c r="H44" s="16"/>
       <c r="I44" s="16"/>
       <c r="J44" s="16"/>
@@ -2122,31 +2158,31 @@
       <c r="M44" s="25"/>
       <c r="N44" s="17"/>
       <c r="O44" s="7"/>
-      <c r="P44" s="45"/>
-      <c r="Q44" s="45"/>
-      <c r="R44" s="45"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
     </row>
     <row r="45" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="55" t="s">
+      <c r="A45" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="55"/>
-      <c r="M45" s="55"/>
-      <c r="N45" s="55"/>
-      <c r="O45" s="55"/>
-      <c r="P45" s="55"/>
-      <c r="Q45" s="55"/>
-      <c r="R45" s="55"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="50"/>
+      <c r="P45" s="50"/>
+      <c r="Q45" s="50"/>
+      <c r="R45" s="50"/>
     </row>
     <row r="46" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H46" s="15"/>
@@ -2206,67 +2242,119 @@
       <c r="G50" s="6"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="54"/>
-      <c r="L54" s="54"/>
-      <c r="M54" s="54"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="53"/>
-      <c r="Q54" s="53"/>
-      <c r="R54" s="53"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="49"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="49"/>
+      <c r="O54" s="48"/>
+      <c r="P54" s="48"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="48"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="F55" s="53" t="s">
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="F55" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="53"/>
-      <c r="M55" s="53"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48"/>
       <c r="R55" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
       <c r="R56" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="N58" s="53" t="s">
+      <c r="N58" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="O58" s="53"/>
-      <c r="P58" s="53"/>
-      <c r="Q58" s="53"/>
+      <c r="O58" s="48"/>
+      <c r="P58" s="48"/>
+      <c r="Q58" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:M4"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="A11:C12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="N58:Q58"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="P31:R31"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="P43:R43"/>
@@ -2283,70 +2371,18 @@
     <mergeCell ref="C42:G42"/>
     <mergeCell ref="C43:G43"/>
     <mergeCell ref="O54:R54"/>
-    <mergeCell ref="N58:Q58"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="A11:C12"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:M4"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N9:Q9"/>
   </mergeCells>
   <conditionalFormatting sqref="B15:R44">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
@@ -2389,12 +2425,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <CDObservaciones xmlns="c8a8a7a3-a3b1-4e8b-b48d-36501fb7376d" xsi:nil="true"/>
+    <CDReferencia xmlns="c8a8a7a3-a3b1-4e8b-b48d-36501fb7376d" xsi:nil="true"/>
+    <l854656610884b0d807d898f64da5fbc xmlns="c8a8a7a3-a3b1-4e8b-b48d-36501fb7376d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l854656610884b0d807d898f64da5fbc>
+    <CDFechaDocumento xmlns="c8a8a7a3-a3b1-4e8b-b48d-36501fb7376d" xsi:nil="true"/>
+    <bc4f3e61c6274d3d9406f88f59edf56c xmlns="c8a8a7a3-a3b1-4e8b-b48d-36501fb7376d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </bc4f3e61c6274d3d9406f88f59edf56c>
+    <id60553447ac43109a707d7c7c3cb0c1 xmlns="c8a8a7a3-a3b1-4e8b-b48d-36501fb7376d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </id60553447ac43109a707d7c7c3cb0c1>
+    <CDNDocReg xmlns="c8a8a7a3-a3b1-4e8b-b48d-36501fb7376d" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4ba4545f-4fd5-4ba1-b183-48a49ec82150" xsi:nil="true"/>
+    <CDDescripcion xmlns="c8a8a7a3-a3b1-4e8b-b48d-36501fb7376d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a426d1fd-150c-44ec-b8f9-cb13d9456d58">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2736,34 +2788,30 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <CDObservaciones xmlns="c8a8a7a3-a3b1-4e8b-b48d-36501fb7376d" xsi:nil="true"/>
-    <CDReferencia xmlns="c8a8a7a3-a3b1-4e8b-b48d-36501fb7376d" xsi:nil="true"/>
-    <l854656610884b0d807d898f64da5fbc xmlns="c8a8a7a3-a3b1-4e8b-b48d-36501fb7376d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l854656610884b0d807d898f64da5fbc>
-    <CDFechaDocumento xmlns="c8a8a7a3-a3b1-4e8b-b48d-36501fb7376d" xsi:nil="true"/>
-    <bc4f3e61c6274d3d9406f88f59edf56c xmlns="c8a8a7a3-a3b1-4e8b-b48d-36501fb7376d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </bc4f3e61c6274d3d9406f88f59edf56c>
-    <id60553447ac43109a707d7c7c3cb0c1 xmlns="c8a8a7a3-a3b1-4e8b-b48d-36501fb7376d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </id60553447ac43109a707d7c7c3cb0c1>
-    <CDNDocReg xmlns="c8a8a7a3-a3b1-4e8b-b48d-36501fb7376d" xsi:nil="true"/>
-    <TaxCatchAll xmlns="4ba4545f-4fd5-4ba1-b183-48a49ec82150" xsi:nil="true"/>
-    <CDDescripcion xmlns="c8a8a7a3-a3b1-4e8b-b48d-36501fb7376d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a426d1fd-150c-44ec-b8f9-cb13d9456d58">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C3E91E2-6B63-4D9A-AC9D-0014964F9A34}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AC43855-3D69-492D-9412-3B3EA66A42E1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="6add0f95-a128-4f5c-8b9b-ce0c6f398f10"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="c8a8a7a3-a3b1-4e8b-b48d-36501fb7376d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="a426d1fd-150c-44ec-b8f9-cb13d9456d58"/>
+    <ds:schemaRef ds:uri="b7e46f94-18c2-41c1-933b-0f101e4b59bf"/>
+    <ds:schemaRef ds:uri="4ba4545f-4fd5-4ba1-b183-48a49ec82150"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2791,21 +2839,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AC43855-3D69-492D-9412-3B3EA66A42E1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C3E91E2-6B63-4D9A-AC9D-0014964F9A34}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="6add0f95-a128-4f5c-8b9b-ce0c6f398f10"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="c8a8a7a3-a3b1-4e8b-b48d-36501fb7376d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="a426d1fd-150c-44ec-b8f9-cb13d9456d58"/>
-    <ds:schemaRef ds:uri="b7e46f94-18c2-41c1-933b-0f101e4b59bf"/>
-    <ds:schemaRef ds:uri="4ba4545f-4fd5-4ba1-b183-48a49ec82150"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/PE_HEA.xlsx
+++ b/PE_HEA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deivi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deivi\Desktop\heidi\maestradb-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A98FBDD-046A-4266-BA59-BB1F93D752E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3531337E-2575-4F87-BA41-C87E28C2D7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,12 +496,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -511,9 +508,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -561,78 +555,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -675,6 +671,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -684,31 +707,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -753,15 +758,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>46464</xdr:colOff>
+      <xdr:colOff>37172</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>92927</xdr:rowOff>
+      <xdr:rowOff>111509</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1178989</xdr:colOff>
+      <xdr:colOff>1169697</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>99914</xdr:rowOff>
+      <xdr:rowOff>118496</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -791,7 +796,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="46464" y="92927"/>
+          <a:off x="37172" y="111509"/>
           <a:ext cx="1364842" cy="611011"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -826,16 +831,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>306660</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>27876</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>55756</xdr:rowOff>
+      <xdr:rowOff>31149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>969907</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>696950</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>141414</xdr:rowOff>
+      <xdr:rowOff>74343</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -857,8 +862,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3902928" y="11634439"/>
-          <a:ext cx="2252296" cy="1395926"/>
+          <a:off x="2109437" y="11609832"/>
+          <a:ext cx="2183781" cy="1353462"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1180,8 +1185,8 @@
   </sheetPr>
   <dimension ref="A1:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="T66" sqref="T66"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1220,7 +1225,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
       <c r="M1" s="36"/>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="20" t="s">
         <v>29</v>
       </c>
       <c r="O1" s="43" t="s">
@@ -1244,7 +1249,7 @@
       <c r="K2" s="38"/>
       <c r="L2" s="38"/>
       <c r="M2" s="39"/>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="21" t="s">
         <v>30</v>
       </c>
       <c r="O2" s="46">
@@ -1268,7 +1273,7 @@
       <c r="K3" s="38"/>
       <c r="L3" s="38"/>
       <c r="M3" s="39"/>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="21" t="s">
         <v>31</v>
       </c>
       <c r="O3" s="47">
@@ -1292,7 +1297,7 @@
       <c r="K4" s="41"/>
       <c r="L4" s="41"/>
       <c r="M4" s="42"/>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O4" s="47" t="s">
@@ -1303,9 +1308,9 @@
       <c r="R4" s="47"/>
     </row>
     <row r="5" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="A5" s="8"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="57" t="s">
@@ -1315,15 +1320,15 @@
       <c r="C6" s="61"/>
       <c r="D6" s="61"/>
       <c r="E6" s="61"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="13" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="11" t="s">
         <v>6</v>
       </c>
       <c r="O6" s="62" t="s">
@@ -1332,34 +1337,34 @@
       <c r="P6" s="62"/>
       <c r="Q6" s="62"/>
       <c r="R6" s="63"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="19" t="e">
+      <c r="S6" s="12"/>
+      <c r="T6" s="17" t="e">
         <f>+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="V6" s="21" t="e">
+      <c r="V6" s="19" t="e">
         <f>+#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
       <c r="N8" s="27" t="s">
         <v>8</v>
       </c>
       <c r="O8" s="27"/>
       <c r="P8" s="27"/>
       <c r="Q8" s="27"/>
-      <c r="R8" s="4" t="s">
+      <c r="R8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1370,51 +1375,51 @@
       <c r="B9" s="60"/>
       <c r="C9" s="60"/>
       <c r="D9" s="60"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
       <c r="N9" s="27" t="s">
         <v>11</v>
       </c>
       <c r="O9" s="27"/>
       <c r="P9" s="27"/>
       <c r="Q9" s="27"/>
-      <c r="R9" s="5" t="s">
+      <c r="R9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
       <c r="N10" s="27" t="s">
         <v>14</v>
       </c>
       <c r="O10" s="27"/>
       <c r="P10" s="27"/>
       <c r="Q10" s="27"/>
-      <c r="R10" s="4" t="s">
+      <c r="R10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="72"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="27" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="N11" s="27" t="s">
@@ -1423,20 +1428,20 @@
       <c r="O11" s="27"/>
       <c r="P11" s="27"/>
       <c r="Q11" s="27"/>
-      <c r="R11" s="4" t="s">
+      <c r="R11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="73"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="75"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="N12" s="27" t="s">
@@ -1445,7 +1450,7 @@
       <c r="O12" s="27"/>
       <c r="P12" s="27"/>
       <c r="Q12" s="27"/>
-      <c r="R12" s="4" t="s">
+      <c r="R12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1454,34 +1459,34 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:22" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3" t="s">
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="20" t="s">
+      <c r="M14" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="N14" s="20" t="s">
+      <c r="N14" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="O14" s="20" t="s">
+      <c r="O14" s="18" t="s">
         <v>2</v>
       </c>
       <c r="P14" s="59" t="s">
@@ -1490,677 +1495,677 @@
       <c r="Q14" s="59"/>
       <c r="R14" s="59"/>
     </row>
-    <row r="15" spans="1:22" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+    <row r="15" spans="1:22" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="54"/>
       <c r="D15" s="55"/>
       <c r="E15" s="55"/>
       <c r="F15" s="55"/>
       <c r="G15" s="56"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="17" t="e">
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="15" t="e">
         <f>+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-    </row>
-    <row r="16" spans="1:22" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+      <c r="M15" s="5"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+    </row>
+    <row r="16" spans="1:22" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="54"/>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
       <c r="F16" s="55"/>
       <c r="G16" s="56"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-    </row>
-    <row r="17" spans="1:24" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+    </row>
+    <row r="17" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="54"/>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
       <c r="F17" s="55"/>
       <c r="G17" s="56"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-    </row>
-    <row r="18" spans="1:24" s="18" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+    </row>
+    <row r="18" spans="1:24" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="54"/>
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
       <c r="F18" s="55"/>
       <c r="G18" s="56"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-    </row>
-    <row r="19" spans="1:24" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+    </row>
+    <row r="19" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
         <v>5</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="54"/>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
       <c r="F19" s="55"/>
       <c r="G19" s="56"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="X19" s="18" t="s">
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="X19" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:24" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+    <row r="20" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
         <v>6</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="54"/>
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
       <c r="F20" s="55"/>
       <c r="G20" s="56"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-    </row>
-    <row r="21" spans="1:24" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+    </row>
+    <row r="21" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
         <v>7</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="54"/>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
       <c r="F21" s="55"/>
       <c r="G21" s="56"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="X21" s="18" t="s">
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="X21" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
+    <row r="22" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
         <v>8</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="54"/>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55"/>
       <c r="G22" s="56"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="U22" s="18" t="s">
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="U22" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:24" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
+    <row r="23" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
         <v>9</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="54"/>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
       <c r="F23" s="55"/>
       <c r="G23" s="56"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-    </row>
-    <row r="24" spans="1:24" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+    </row>
+    <row r="24" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
         <v>10</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="54"/>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
       <c r="F24" s="55"/>
       <c r="G24" s="56"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-    </row>
-    <row r="25" spans="1:24" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+    </row>
+    <row r="25" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
         <v>11</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="54"/>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
       <c r="F25" s="55"/>
       <c r="G25" s="56"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-    </row>
-    <row r="26" spans="1:24" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+    </row>
+    <row r="26" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
         <v>12</v>
       </c>
-      <c r="B26" s="7"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="54"/>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
       <c r="F26" s="55"/>
       <c r="G26" s="56"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-    </row>
-    <row r="27" spans="1:24" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+    </row>
+    <row r="27" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
         <v>13</v>
       </c>
-      <c r="B27" s="7"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="54"/>
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
       <c r="F27" s="55"/>
       <c r="G27" s="56"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-    </row>
-    <row r="28" spans="1:24" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+    </row>
+    <row r="28" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
         <v>14</v>
       </c>
-      <c r="B28" s="7"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="54"/>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
       <c r="F28" s="55"/>
       <c r="G28" s="56"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-    </row>
-    <row r="29" spans="1:24" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+    </row>
+    <row r="29" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
         <v>15</v>
       </c>
-      <c r="B29" s="7"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="54"/>
       <c r="D29" s="55"/>
       <c r="E29" s="55"/>
       <c r="F29" s="55"/>
       <c r="G29" s="56"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-    </row>
-    <row r="30" spans="1:24" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+    </row>
+    <row r="30" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
         <v>16</v>
       </c>
-      <c r="B30" s="7"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="54"/>
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
       <c r="F30" s="55"/>
       <c r="G30" s="56"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-    </row>
-    <row r="31" spans="1:24" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+    </row>
+    <row r="31" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
         <v>17</v>
       </c>
-      <c r="B31" s="7"/>
+      <c r="B31" s="5"/>
       <c r="C31" s="54"/>
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
       <c r="F31" s="55"/>
       <c r="G31" s="56"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
-    </row>
-    <row r="32" spans="1:24" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+    </row>
+    <row r="32" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
         <v>18</v>
       </c>
-      <c r="B32" s="7"/>
+      <c r="B32" s="5"/>
       <c r="C32" s="54"/>
       <c r="D32" s="55"/>
       <c r="E32" s="55"/>
       <c r="F32" s="55"/>
       <c r="G32" s="56"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-    </row>
-    <row r="33" spans="1:18" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+    </row>
+    <row r="33" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
         <v>19</v>
       </c>
-      <c r="B33" s="7"/>
+      <c r="B33" s="5"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
       <c r="E33" s="52"/>
       <c r="F33" s="52"/>
       <c r="G33" s="53"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-    </row>
-    <row r="34" spans="1:18" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+    </row>
+    <row r="34" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
         <v>20</v>
       </c>
-      <c r="B34" s="7"/>
+      <c r="B34" s="5"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
       <c r="E34" s="52"/>
       <c r="F34" s="52"/>
       <c r="G34" s="53"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-    </row>
-    <row r="35" spans="1:18" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+    </row>
+    <row r="35" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
         <v>21</v>
       </c>
-      <c r="B35" s="7"/>
+      <c r="B35" s="5"/>
       <c r="C35" s="51"/>
       <c r="D35" s="52"/>
       <c r="E35" s="52"/>
       <c r="F35" s="52"/>
       <c r="G35" s="53"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="26"/>
-    </row>
-    <row r="36" spans="1:18" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+    </row>
+    <row r="36" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
         <v>22</v>
       </c>
-      <c r="B36" s="7"/>
+      <c r="B36" s="5"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
       <c r="E36" s="52"/>
       <c r="F36" s="52"/>
       <c r="G36" s="53"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26"/>
-    </row>
-    <row r="37" spans="1:18" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+    </row>
+    <row r="37" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
         <v>23</v>
       </c>
-      <c r="B37" s="7"/>
+      <c r="B37" s="5"/>
       <c r="C37" s="51"/>
       <c r="D37" s="52"/>
       <c r="E37" s="52"/>
       <c r="F37" s="52"/>
       <c r="G37" s="53"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
-    </row>
-    <row r="38" spans="1:18" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+    </row>
+    <row r="38" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
         <v>24</v>
       </c>
-      <c r="B38" s="7"/>
+      <c r="B38" s="5"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
       <c r="E38" s="52"/>
       <c r="F38" s="52"/>
       <c r="G38" s="53"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="26"/>
-    </row>
-    <row r="39" spans="1:18" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="49"/>
+    </row>
+    <row r="39" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
         <v>25</v>
       </c>
-      <c r="B39" s="7"/>
+      <c r="B39" s="5"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
       <c r="E39" s="52"/>
       <c r="F39" s="52"/>
       <c r="G39" s="53"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="26"/>
-    </row>
-    <row r="40" spans="1:18" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="49"/>
+    </row>
+    <row r="40" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
         <v>26</v>
       </c>
-      <c r="B40" s="7"/>
+      <c r="B40" s="5"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
       <c r="E40" s="52"/>
       <c r="F40" s="52"/>
       <c r="G40" s="53"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="26"/>
-      <c r="R40" s="26"/>
-    </row>
-    <row r="41" spans="1:18" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="49"/>
+      <c r="R40" s="49"/>
+    </row>
+    <row r="41" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
         <v>27</v>
       </c>
-      <c r="B41" s="7"/>
+      <c r="B41" s="5"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
       <c r="E41" s="52"/>
       <c r="F41" s="52"/>
       <c r="G41" s="53"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="26"/>
-    </row>
-    <row r="42" spans="1:18" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="49"/>
+      <c r="R41" s="49"/>
+    </row>
+    <row r="42" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
         <v>28</v>
       </c>
-      <c r="B42" s="7"/>
+      <c r="B42" s="5"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
       <c r="E42" s="52"/>
       <c r="F42" s="52"/>
       <c r="G42" s="53"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="26"/>
-      <c r="R42" s="26"/>
-    </row>
-    <row r="43" spans="1:18" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="49"/>
+    </row>
+    <row r="43" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
         <v>29</v>
       </c>
-      <c r="B43" s="7"/>
+      <c r="B43" s="5"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
       <c r="E43" s="52"/>
       <c r="F43" s="52"/>
       <c r="G43" s="53"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="26"/>
-    </row>
-    <row r="44" spans="1:18" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="49"/>
+      <c r="Q43" s="49"/>
+      <c r="R43" s="49"/>
+    </row>
+    <row r="44" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
         <v>30</v>
       </c>
-      <c r="B44" s="7"/>
+      <c r="B44" s="5"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
       <c r="E44" s="52"/>
       <c r="F44" s="52"/>
       <c r="G44" s="53"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="26"/>
-      <c r="Q44" s="26"/>
-      <c r="R44" s="26"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="49"/>
+      <c r="Q44" s="49"/>
+      <c r="R44" s="49"/>
     </row>
     <row r="45" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="50" t="s">
@@ -2185,90 +2190,163 @@
       <c r="R45" s="50"/>
     </row>
     <row r="46" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="15"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
     </row>
     <row r="47" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="15"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
     </row>
     <row r="48" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
     </row>
     <row r="49" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
     </row>
     <row r="50" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="49"/>
-      <c r="L54" s="49"/>
-      <c r="M54" s="49"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51" s="16"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52" s="16"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" s="16"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+    </row>
+    <row r="54" spans="1:18" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
       <c r="O54" s="48"/>
       <c r="P54" s="48"/>
       <c r="Q54" s="48"/>
       <c r="R54" s="48"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="F55" s="48" t="s">
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="48"/>
-      <c r="L55" s="48"/>
-      <c r="M55" s="48"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
       <c r="R55" t="s">
         <v>26</v>
       </c>
@@ -2290,10 +2368,16 @@
       <c r="Q58" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="91">
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="D48:F54"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E10:G10"/>
@@ -2317,28 +2401,22 @@
     <mergeCell ref="P16:R16"/>
     <mergeCell ref="P17:R17"/>
     <mergeCell ref="C16:G16"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="P32:R32"/>
     <mergeCell ref="P33:R33"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="C34:G34"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="P35:R35"/>
     <mergeCell ref="N58:Q58"/>
     <mergeCell ref="P29:R29"/>
     <mergeCell ref="P18:R18"/>
@@ -2356,7 +2434,6 @@
     <mergeCell ref="P30:R30"/>
     <mergeCell ref="P31:R31"/>
     <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B55:D55"/>
     <mergeCell ref="P43:R43"/>
     <mergeCell ref="P44:R44"/>
     <mergeCell ref="P36:R36"/>
@@ -2364,20 +2441,20 @@
     <mergeCell ref="P38:R38"/>
     <mergeCell ref="P41:R41"/>
     <mergeCell ref="P40:R40"/>
-    <mergeCell ref="F54:M54"/>
-    <mergeCell ref="F55:M55"/>
     <mergeCell ref="A45:R45"/>
     <mergeCell ref="P42:R42"/>
     <mergeCell ref="C42:G42"/>
     <mergeCell ref="C43:G43"/>
     <mergeCell ref="O54:R54"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="C1:M4"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="O3:R3"/>
     <mergeCell ref="O4:R4"/>
-    <mergeCell ref="P32:R32"/>
     <mergeCell ref="N8:Q8"/>
     <mergeCell ref="N12:Q12"/>
     <mergeCell ref="N11:Q11"/>

--- a/PE_HEA.xlsx
+++ b/PE_HEA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deivi\Desktop\heidi\maestradb-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deivi\Desktop\maestradb-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3531337E-2575-4F87-BA41-C87E28C2D7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89ED139-6573-493E-B0F6-2B914D9370C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>VCTO</t>
-  </si>
-  <si>
-    <t>CANTIDAD</t>
   </si>
   <si>
     <t>TEMP</t>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>1 de 1</t>
+  </si>
+  <si>
+    <t>CANT/UND</t>
   </si>
 </sst>
 </file>
@@ -560,9 +560,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -622,99 +715,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1185,8 +1185,8 @@
   </sheetPr>
   <dimension ref="A1:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="P57" sqref="P57"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1210,102 +1210,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="34" t="s">
+      <c r="A1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="20" t="s">
+      <c r="O1" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="76"/>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O2" s="77">
+        <v>43987</v>
+      </c>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+    </row>
+    <row r="3" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="78">
+        <v>0</v>
+      </c>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+    </row>
+    <row r="4" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="45"/>
-    </row>
-    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="46">
-        <v>43987</v>
-      </c>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-    </row>
-    <row r="3" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="47">
-        <v>0</v>
-      </c>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-    </row>
-    <row r="4" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
     </row>
     <row r="5" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
@@ -1313,13 +1313,13 @@
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
+      <c r="A6" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
       <c r="F6" s="9"/>
       <c r="G6" s="7"/>
       <c r="H6" s="10"/>
@@ -1329,14 +1329,14 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="O6" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="63"/>
+        <v>5</v>
+      </c>
+      <c r="O6" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="56"/>
       <c r="S6" s="12"/>
       <c r="T6" s="17" t="e">
         <f>+#REF!</f>
@@ -1349,136 +1349,136 @@
     </row>
     <row r="7" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="N8" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="N8" s="27" t="s">
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.3">
+      <c r="A9" s="53" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="60" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="N9" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="N9" s="27" t="s">
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="72" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="N10" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="N10" s="27" t="s">
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="66" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="27" t="s">
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N11" s="27" t="s">
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="69"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="27" t="s">
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
       <c r="R12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="M13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="75"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M14" s="18" t="s">
         <v>0</v>
@@ -1487,24 +1487,24 @@
         <v>1</v>
       </c>
       <c r="O14" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="P14" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="P14" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
     </row>
     <row r="15" spans="1:22" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>1</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="56"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -1516,20 +1516,20 @@
       <c r="M15" s="5"/>
       <c r="N15" s="15"/>
       <c r="O15" s="5"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
     </row>
     <row r="16" spans="1:22" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="56"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -1538,20 +1538,20 @@
       <c r="M16" s="23"/>
       <c r="N16" s="15"/>
       <c r="O16" s="5"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
     </row>
     <row r="17" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>3</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="56"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -1560,20 +1560,20 @@
       <c r="M17" s="23"/>
       <c r="N17" s="15"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
     </row>
     <row r="18" spans="1:24" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>4</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
@@ -1582,20 +1582,20 @@
       <c r="M18" s="23"/>
       <c r="N18" s="15"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
     </row>
     <row r="19" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>5</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="56"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
@@ -1604,11 +1604,11 @@
       <c r="M19" s="23"/>
       <c r="N19" s="15"/>
       <c r="O19" s="5"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
       <c r="X19" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1616,11 +1616,11 @@
         <v>6</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="56"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
@@ -1629,20 +1629,20 @@
       <c r="M20" s="23"/>
       <c r="N20" s="15"/>
       <c r="O20" s="5"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
     </row>
     <row r="21" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>7</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="56"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -1651,11 +1651,11 @@
       <c r="M21" s="23"/>
       <c r="N21" s="15"/>
       <c r="O21" s="5"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
       <c r="X21" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1663,11 +1663,11 @@
         <v>8</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="56"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -1676,11 +1676,11 @@
       <c r="M22" s="23"/>
       <c r="N22" s="15"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
       <c r="U22" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1688,11 +1688,11 @@
         <v>9</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="56"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
@@ -1701,20 +1701,20 @@
       <c r="M23" s="23"/>
       <c r="N23" s="15"/>
       <c r="O23" s="5"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
     </row>
     <row r="24" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>10</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="56"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -1723,20 +1723,20 @@
       <c r="M24" s="23"/>
       <c r="N24" s="15"/>
       <c r="O24" s="5"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
     </row>
     <row r="25" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>11</v>
       </c>
       <c r="B25" s="5"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="56"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="39"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -1745,20 +1745,20 @@
       <c r="M25" s="23"/>
       <c r="N25" s="15"/>
       <c r="O25" s="5"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
     </row>
     <row r="26" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>12</v>
       </c>
       <c r="B26" s="5"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="56"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
@@ -1767,20 +1767,20 @@
       <c r="M26" s="23"/>
       <c r="N26" s="15"/>
       <c r="O26" s="5"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
     </row>
     <row r="27" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>13</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="56"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="39"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
@@ -1789,20 +1789,20 @@
       <c r="M27" s="23"/>
       <c r="N27" s="15"/>
       <c r="O27" s="5"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
     </row>
     <row r="28" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>14</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="56"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="39"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
@@ -1811,20 +1811,20 @@
       <c r="M28" s="23"/>
       <c r="N28" s="15"/>
       <c r="O28" s="5"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
     </row>
     <row r="29" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>15</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="56"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="39"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
@@ -1833,20 +1833,20 @@
       <c r="M29" s="23"/>
       <c r="N29" s="15"/>
       <c r="O29" s="5"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
     </row>
     <row r="30" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>16</v>
       </c>
       <c r="B30" s="5"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="56"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
@@ -1855,20 +1855,20 @@
       <c r="M30" s="23"/>
       <c r="N30" s="15"/>
       <c r="O30" s="5"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="49"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
     </row>
     <row r="31" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>17</v>
       </c>
       <c r="B31" s="5"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="56"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="39"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
@@ -1877,20 +1877,20 @@
       <c r="M31" s="23"/>
       <c r="N31" s="15"/>
       <c r="O31" s="5"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
     </row>
     <row r="32" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>18</v>
       </c>
       <c r="B32" s="5"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="56"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="39"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
@@ -1899,20 +1899,20 @@
       <c r="M32" s="23"/>
       <c r="N32" s="15"/>
       <c r="O32" s="5"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="49"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
     </row>
     <row r="33" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>19</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="53"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
@@ -1921,20 +1921,20 @@
       <c r="M33" s="23"/>
       <c r="N33" s="15"/>
       <c r="O33" s="5"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
     </row>
     <row r="34" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>20</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="53"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
@@ -1943,20 +1943,20 @@
       <c r="M34" s="23"/>
       <c r="N34" s="15"/>
       <c r="O34" s="5"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="49"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="52"/>
+      <c r="R34" s="52"/>
     </row>
     <row r="35" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>21</v>
       </c>
       <c r="B35" s="5"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="53"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="29"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
@@ -1965,20 +1965,20 @@
       <c r="M35" s="23"/>
       <c r="N35" s="15"/>
       <c r="O35" s="5"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="49"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
     </row>
     <row r="36" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>22</v>
       </c>
       <c r="B36" s="5"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="53"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="29"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
@@ -1987,20 +1987,20 @@
       <c r="M36" s="23"/>
       <c r="N36" s="15"/>
       <c r="O36" s="5"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="49"/>
-      <c r="R36" s="49"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="52"/>
     </row>
     <row r="37" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>23</v>
       </c>
       <c r="B37" s="5"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="53"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="29"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
@@ -2009,20 +2009,20 @@
       <c r="M37" s="23"/>
       <c r="N37" s="15"/>
       <c r="O37" s="5"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="49"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="52"/>
+      <c r="R37" s="52"/>
     </row>
     <row r="38" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>24</v>
       </c>
       <c r="B38" s="5"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="53"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="29"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
@@ -2031,20 +2031,20 @@
       <c r="M38" s="23"/>
       <c r="N38" s="15"/>
       <c r="O38" s="5"/>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="49"/>
-      <c r="R38" s="49"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="52"/>
     </row>
     <row r="39" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>25</v>
       </c>
       <c r="B39" s="5"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="53"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="29"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
@@ -2053,20 +2053,20 @@
       <c r="M39" s="23"/>
       <c r="N39" s="15"/>
       <c r="O39" s="5"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="49"/>
-      <c r="R39" s="49"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="52"/>
     </row>
     <row r="40" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>26</v>
       </c>
       <c r="B40" s="5"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="53"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="29"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
@@ -2075,20 +2075,20 @@
       <c r="M40" s="23"/>
       <c r="N40" s="15"/>
       <c r="O40" s="5"/>
-      <c r="P40" s="49"/>
-      <c r="Q40" s="49"/>
-      <c r="R40" s="49"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="52"/>
     </row>
     <row r="41" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>27</v>
       </c>
       <c r="B41" s="5"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="53"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
@@ -2097,20 +2097,20 @@
       <c r="M41" s="23"/>
       <c r="N41" s="15"/>
       <c r="O41" s="5"/>
-      <c r="P41" s="49"/>
-      <c r="Q41" s="49"/>
-      <c r="R41" s="49"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="52"/>
+      <c r="R41" s="52"/>
     </row>
     <row r="42" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>28</v>
       </c>
       <c r="B42" s="5"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="53"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="29"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
@@ -2119,20 +2119,20 @@
       <c r="M42" s="23"/>
       <c r="N42" s="15"/>
       <c r="O42" s="5"/>
-      <c r="P42" s="49"/>
-      <c r="Q42" s="49"/>
-      <c r="R42" s="49"/>
+      <c r="P42" s="52"/>
+      <c r="Q42" s="52"/>
+      <c r="R42" s="52"/>
     </row>
     <row r="43" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>29</v>
       </c>
       <c r="B43" s="5"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="53"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="29"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
@@ -2141,20 +2141,20 @@
       <c r="M43" s="23"/>
       <c r="N43" s="15"/>
       <c r="O43" s="5"/>
-      <c r="P43" s="49"/>
-      <c r="Q43" s="49"/>
-      <c r="R43" s="49"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="52"/>
+      <c r="R43" s="52"/>
     </row>
     <row r="44" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>30</v>
       </c>
       <c r="B44" s="5"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="53"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="29"/>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
@@ -2163,31 +2163,31 @@
       <c r="M44" s="23"/>
       <c r="N44" s="15"/>
       <c r="O44" s="5"/>
-      <c r="P44" s="49"/>
-      <c r="Q44" s="49"/>
-      <c r="R44" s="49"/>
+      <c r="P44" s="52"/>
+      <c r="Q44" s="52"/>
+      <c r="R44" s="52"/>
     </row>
     <row r="45" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="50"/>
-      <c r="O45" s="50"/>
-      <c r="P45" s="50"/>
-      <c r="Q45" s="50"/>
-      <c r="R45" s="50"/>
+      <c r="A45" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="58"/>
+      <c r="O45" s="58"/>
+      <c r="P45" s="58"/>
+      <c r="Q45" s="58"/>
+      <c r="R45" s="58"/>
     </row>
     <row r="46" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H46" s="13"/>
@@ -2226,9 +2226,9 @@
       <c r="A48" s="16"/>
       <c r="B48" s="26"/>
       <c r="C48" s="26"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="77"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
       <c r="G48" s="24"/>
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
@@ -2241,9 +2241,9 @@
       <c r="A49" s="16"/>
       <c r="B49" s="26"/>
       <c r="C49" s="26"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
       <c r="G49" s="24"/>
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
@@ -2256,9 +2256,9 @@
       <c r="A50" s="16"/>
       <c r="B50" s="26"/>
       <c r="C50" s="26"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="77"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
@@ -2271,9 +2271,9 @@
       <c r="A51" s="16"/>
       <c r="B51" s="26"/>
       <c r="C51" s="26"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
       <c r="G51" s="24"/>
       <c r="H51" s="24"/>
       <c r="I51" s="24"/>
@@ -2286,9 +2286,9 @@
       <c r="A52" s="16"/>
       <c r="B52" s="26"/>
       <c r="C52" s="26"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="77"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
       <c r="G52" s="24"/>
       <c r="H52" s="24"/>
       <c r="I52" s="24"/>
@@ -2301,9 +2301,9 @@
       <c r="A53" s="16"/>
       <c r="B53" s="26"/>
       <c r="C53" s="26"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="77"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
       <c r="G53" s="24"/>
       <c r="H53" s="24"/>
       <c r="I53" s="24"/>
@@ -2316,9 +2316,9 @@
       <c r="A54" s="26"/>
       <c r="B54" s="26"/>
       <c r="C54" s="26"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="78"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
       <c r="G54" s="25"/>
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
@@ -2326,21 +2326,21 @@
       <c r="K54" s="25"/>
       <c r="L54" s="25"/>
       <c r="M54" s="25"/>
-      <c r="O54" s="48"/>
-      <c r="P54" s="48"/>
-      <c r="Q54" s="48"/>
-      <c r="R54" s="48"/>
+      <c r="O54" s="57"/>
+      <c r="P54" s="57"/>
+      <c r="Q54" s="57"/>
+      <c r="R54" s="57"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
-      <c r="C55" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
+      <c r="C55" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
       <c r="J55" s="25"/>
@@ -2348,43 +2348,86 @@
       <c r="L55" s="25"/>
       <c r="M55" s="25"/>
       <c r="R55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B56" s="48"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
       <c r="R56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="N58" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="O58" s="48"/>
-      <c r="P58" s="48"/>
-      <c r="Q58" s="48"/>
+      <c r="N58" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="O58" s="57"/>
+      <c r="P58" s="57"/>
+      <c r="Q58" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="D48:F54"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="A11:C12"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:M4"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="A45:R45"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="O54:R54"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="N58:Q58"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C34:G34"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="P14:R14"/>
     <mergeCell ref="P15:R15"/>
@@ -2401,65 +2444,22 @@
     <mergeCell ref="P16:R16"/>
     <mergeCell ref="P17:R17"/>
     <mergeCell ref="C16:G16"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="N58:Q58"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="A45:R45"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="O54:R54"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:M4"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="A11:C12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="D48:F54"/>
+    <mergeCell ref="C14:G14"/>
   </mergeCells>
   <conditionalFormatting sqref="B15:R44">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
@@ -2527,6 +2527,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Control Documentario" ma:contentTypeID="0x0101002FEF3228F716B746865004DCAF7757FB00D2C9AC204B5CFE4A8C61FB3E959866E9" ma:contentTypeVersion="12" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="cfc9f9e12ca1134cb553ada2f905e15a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8a8a7a3-a3b1-4e8b-b48d-36501fb7376d" xmlns:ns3="4ba4545f-4fd5-4ba1-b183-48a49ec82150" xmlns:ns4="b7e46f94-18c2-41c1-933b-0f101e4b59bf" xmlns:ns5="6add0f95-a128-4f5c-8b9b-ce0c6f398f10" xmlns:ns6="a426d1fd-150c-44ec-b8f9-cb13d9456d58" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f41337bded92f371245033edea69c06" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="c8a8a7a3-a3b1-4e8b-b48d-36501fb7376d"/>
@@ -2864,15 +2873,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AC43855-3D69-492D-9412-3B3EA66A42E1}">
   <ds:schemaRefs>
@@ -2894,6 +2894,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C3E91E2-6B63-4D9A-AC9D-0014964F9A34}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4ADF858-6807-416F-A516-48CBC02C9B62}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2913,12 +2921,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C3E91E2-6B63-4D9A-AC9D-0014964F9A34}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/PE_HEA.xlsx
+++ b/PE_HEA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deivi\Desktop\maestradb-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deivi\Desktop\pruebas_py\maestradb-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89ED139-6573-493E-B0F6-2B914D9370C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AAF606-2CBE-4A76-88AB-C23687337E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>LOTE</t>
   </si>
@@ -166,6 +166,12 @@
   <si>
     <t>CANT/UND</t>
   </si>
+  <si>
+    <t>RESPONSABLE DE RECEPCIÓN</t>
+  </si>
+  <si>
+    <t>COORDINADOR DE ALMACEN</t>
+  </si>
 </sst>
 </file>
 
@@ -174,7 +180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\ &quot;°C&quot;"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,13 +242,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
@@ -257,6 +256,24 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
@@ -422,39 +439,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="1"/>
       </left>
@@ -468,10 +452,19 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color theme="1"/>
-      </right>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -483,11 +476,33 @@
         <color theme="1"/>
       </left>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color theme="1"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,15 +558,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -560,6 +566,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -569,13 +595,121 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -586,135 +720,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -757,16 +762,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>37172</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>298429</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>111509</xdr:rowOff>
+      <xdr:rowOff>111508</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1169697</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>287954</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>118496</xdr:rowOff>
+      <xdr:rowOff>118495</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -796,8 +801,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="37172" y="111509"/>
-          <a:ext cx="1364842" cy="611011"/>
+          <a:off x="7809572" y="111508"/>
+          <a:ext cx="1361125" cy="616587"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -831,23 +836,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>27876</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>21768</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>31149</xdr:rowOff>
+      <xdr:rowOff>10884</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>696950</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>69591</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>74343</xdr:rowOff>
+      <xdr:rowOff>38284</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4">
+        <xdr:cNvPr id="19" name="Imagen 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1303D40-79A9-4B00-A923-57EAD1C41BB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CF8D7B9-26B2-44D7-985F-99A88E9C9AB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -855,15 +860,122 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect l="70417" t="61015" r="6891" b="28051"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2109437" y="11609832"/>
-          <a:ext cx="2183781" cy="1353462"/>
+          <a:off x="7532911" y="11713027"/>
+          <a:ext cx="1419423" cy="1333686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>213632</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Imagen 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B650666-40EB-4B6C-A80D-67D034BF1A4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="250371" y="12213771"/>
+          <a:ext cx="1400175" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>21769</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>32654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>654959</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E629B47-1818-4E3C-99AD-61090EDEEA22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3614055" y="11734797"/>
+          <a:ext cx="2222504" cy="1197431"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1185,11 +1297,11 @@
   </sheetPr>
   <dimension ref="A1:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N66" sqref="N66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
@@ -1201,125 +1313,125 @@
     <col min="8" max="10" width="18" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
     <col min="15" max="15" width="15.44140625" customWidth="1"/>
     <col min="16" max="16" width="4.5546875" customWidth="1"/>
-    <col min="17" max="17" width="3.33203125" customWidth="1"/>
-    <col min="18" max="18" width="4" customWidth="1"/>
+    <col min="17" max="17" width="5" customWidth="1"/>
+    <col min="18" max="18" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59"/>
+    <row r="1" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A1" s="59" t="s">
+        <v>28</v>
+      </c>
       <c r="B1" s="60"/>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="69"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
       <c r="M1" s="67"/>
-      <c r="N1" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="74" t="s">
-        <v>36</v>
-      </c>
+      <c r="N1" s="67"/>
+      <c r="O1" s="75"/>
       <c r="P1" s="75"/>
       <c r="Q1" s="75"/>
-      <c r="R1" s="76"/>
-    </row>
-    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="61"/>
+      <c r="R1" s="75"/>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A2" s="61" t="s">
+        <v>30</v>
+      </c>
       <c r="B2" s="62"/>
-      <c r="C2" s="68"/>
+      <c r="C2" s="68">
+        <v>1</v>
+      </c>
       <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="21" t="s">
+      <c r="E2" s="70"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+    </row>
+    <row r="3" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A3" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="77">
-        <v>43987</v>
-      </c>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-    </row>
-    <row r="3" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="71">
+        <v>45693</v>
+      </c>
       <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="78">
-        <v>0</v>
-      </c>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-    </row>
-    <row r="4" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="22" t="s">
+      <c r="E3" s="70"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+    </row>
+    <row r="4" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A4" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="B4" s="66"/>
+      <c r="C4" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-    </row>
-    <row r="5" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+    </row>
+    <row r="5" spans="1:22" ht="9.75" customHeight="1">
       <c r="A5" s="8"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="49" t="s">
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="9"/>
       <c r="G6" s="7"/>
       <c r="H6" s="10"/>
@@ -1331,12 +1443,12 @@
       <c r="N6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="55" t="s">
+      <c r="O6" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="56"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="46"/>
       <c r="S6" s="12"/>
       <c r="T6" s="17" t="e">
         <f>+#REF!</f>
@@ -1347,132 +1459,132 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+    <row r="7" spans="1:22" ht="10.5" customHeight="1"/>
+    <row r="8" spans="1:22" ht="15.6">
+      <c r="A8" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="N8" s="42" t="s">
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="N8" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
       <c r="R8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="53" t="s">
+    <row r="9" spans="1:22" ht="15">
+      <c r="A9" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="N9" s="42" t="s">
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="N9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
       <c r="R9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+    <row r="10" spans="1:22" ht="15.6">
+      <c r="A10" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="N10" s="42" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="N10" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
       <c r="R10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="43" t="s">
+    <row r="11" spans="1:22" ht="15.6">
+      <c r="A11" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="42" t="s">
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="42" t="s">
+      <c r="N11" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
       <c r="R11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="42" t="s">
+    <row r="12" spans="1:22" ht="15.6">
+      <c r="A12" s="53"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
       <c r="G12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N12" s="42" t="s">
+      <c r="N12" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22">
       <c r="M13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A14" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="78"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1489,13 +1601,13 @@
       <c r="O14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="51" t="s">
+      <c r="P14" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-    </row>
-    <row r="15" spans="1:22" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+    </row>
+    <row r="15" spans="1:22" s="16" customFormat="1" ht="22.5" customHeight="1">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -1516,11 +1628,11 @@
       <c r="M15" s="5"/>
       <c r="N15" s="15"/>
       <c r="O15" s="5"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-    </row>
-    <row r="16" spans="1:22" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+    </row>
+    <row r="16" spans="1:22" s="16" customFormat="1" ht="22.5" customHeight="1">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -1535,14 +1647,14 @@
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
-      <c r="M16" s="23"/>
+      <c r="M16" s="20"/>
       <c r="N16" s="15"/>
       <c r="O16" s="5"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-    </row>
-    <row r="17" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+    </row>
+    <row r="17" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1">
       <c r="A17" s="5">
         <v>3</v>
       </c>
@@ -1557,14 +1669,14 @@
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
-      <c r="M17" s="23"/>
+      <c r="M17" s="20"/>
       <c r="N17" s="15"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-    </row>
-    <row r="18" spans="1:24" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+    </row>
+    <row r="18" spans="1:24" s="16" customFormat="1" ht="27" customHeight="1">
       <c r="A18" s="5">
         <v>4</v>
       </c>
@@ -1579,14 +1691,14 @@
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
-      <c r="M18" s="23"/>
+      <c r="M18" s="20"/>
       <c r="N18" s="15"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-    </row>
-    <row r="19" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+    </row>
+    <row r="19" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1">
       <c r="A19" s="5">
         <v>5</v>
       </c>
@@ -1601,17 +1713,17 @@
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
-      <c r="M19" s="23"/>
+      <c r="M19" s="20"/>
       <c r="N19" s="15"/>
       <c r="O19" s="5"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
       <c r="X19" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1">
       <c r="A20" s="5">
         <v>6</v>
       </c>
@@ -1626,14 +1738,14 @@
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
-      <c r="M20" s="23"/>
+      <c r="M20" s="20"/>
       <c r="N20" s="15"/>
       <c r="O20" s="5"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-    </row>
-    <row r="21" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+    </row>
+    <row r="21" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1">
       <c r="A21" s="5">
         <v>7</v>
       </c>
@@ -1648,17 +1760,17 @@
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
-      <c r="M21" s="23"/>
+      <c r="M21" s="20"/>
       <c r="N21" s="15"/>
       <c r="O21" s="5"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
       <c r="X21" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1">
       <c r="A22" s="5">
         <v>8</v>
       </c>
@@ -1673,17 +1785,17 @@
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
-      <c r="M22" s="23"/>
+      <c r="M22" s="20"/>
       <c r="N22" s="15"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
       <c r="U22" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1">
       <c r="A23" s="5">
         <v>9</v>
       </c>
@@ -1698,14 +1810,14 @@
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
-      <c r="M23" s="23"/>
+      <c r="M23" s="20"/>
       <c r="N23" s="15"/>
       <c r="O23" s="5"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-    </row>
-    <row r="24" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+    </row>
+    <row r="24" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1">
       <c r="A24" s="5">
         <v>10</v>
       </c>
@@ -1720,14 +1832,14 @@
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
-      <c r="M24" s="23"/>
+      <c r="M24" s="20"/>
       <c r="N24" s="15"/>
       <c r="O24" s="5"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-    </row>
-    <row r="25" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+    </row>
+    <row r="25" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1">
       <c r="A25" s="5">
         <v>11</v>
       </c>
@@ -1742,14 +1854,14 @@
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
-      <c r="M25" s="23"/>
+      <c r="M25" s="20"/>
       <c r="N25" s="15"/>
       <c r="O25" s="5"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-    </row>
-    <row r="26" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+    </row>
+    <row r="26" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1">
       <c r="A26" s="5">
         <v>12</v>
       </c>
@@ -1764,14 +1876,14 @@
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
-      <c r="M26" s="23"/>
+      <c r="M26" s="20"/>
       <c r="N26" s="15"/>
       <c r="O26" s="5"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-    </row>
-    <row r="27" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+    </row>
+    <row r="27" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1">
       <c r="A27" s="5">
         <v>13</v>
       </c>
@@ -1786,14 +1898,14 @@
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
-      <c r="M27" s="23"/>
+      <c r="M27" s="20"/>
       <c r="N27" s="15"/>
       <c r="O27" s="5"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-    </row>
-    <row r="28" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+    </row>
+    <row r="28" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1">
       <c r="A28" s="5">
         <v>14</v>
       </c>
@@ -1808,14 +1920,14 @@
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
-      <c r="M28" s="23"/>
+      <c r="M28" s="20"/>
       <c r="N28" s="15"/>
       <c r="O28" s="5"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-    </row>
-    <row r="29" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+    </row>
+    <row r="29" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1">
       <c r="A29" s="5">
         <v>15</v>
       </c>
@@ -1830,14 +1942,14 @@
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
-      <c r="M29" s="23"/>
+      <c r="M29" s="20"/>
       <c r="N29" s="15"/>
       <c r="O29" s="5"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-    </row>
-    <row r="30" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+    </row>
+    <row r="30" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1">
       <c r="A30" s="5">
         <v>16</v>
       </c>
@@ -1852,14 +1964,14 @@
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
-      <c r="M30" s="23"/>
+      <c r="M30" s="20"/>
       <c r="N30" s="15"/>
       <c r="O30" s="5"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-    </row>
-    <row r="31" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+    </row>
+    <row r="31" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1">
       <c r="A31" s="5">
         <v>17</v>
       </c>
@@ -1874,14 +1986,14 @@
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
-      <c r="M31" s="23"/>
+      <c r="M31" s="20"/>
       <c r="N31" s="15"/>
       <c r="O31" s="5"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-    </row>
-    <row r="32" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+    </row>
+    <row r="32" spans="1:24" s="16" customFormat="1" ht="22.5" customHeight="1">
       <c r="A32" s="5">
         <v>18</v>
       </c>
@@ -1896,300 +2008,300 @@
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
-      <c r="M32" s="23"/>
+      <c r="M32" s="20"/>
       <c r="N32" s="15"/>
       <c r="O32" s="5"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-    </row>
-    <row r="33" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+    </row>
+    <row r="33" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1">
       <c r="A33" s="5">
         <v>19</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="29"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="36"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
-      <c r="M33" s="23"/>
+      <c r="M33" s="20"/>
       <c r="N33" s="15"/>
       <c r="O33" s="5"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
-    </row>
-    <row r="34" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+    </row>
+    <row r="34" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1">
       <c r="A34" s="5">
         <v>20</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="36"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
-      <c r="M34" s="23"/>
+      <c r="M34" s="20"/>
       <c r="N34" s="15"/>
       <c r="O34" s="5"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="52"/>
-    </row>
-    <row r="35" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+    </row>
+    <row r="35" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1">
       <c r="A35" s="5">
         <v>21</v>
       </c>
       <c r="B35" s="5"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="29"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="36"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
-      <c r="M35" s="23"/>
+      <c r="M35" s="20"/>
       <c r="N35" s="15"/>
       <c r="O35" s="5"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-    </row>
-    <row r="36" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+    </row>
+    <row r="36" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1">
       <c r="A36" s="5">
         <v>22</v>
       </c>
       <c r="B36" s="5"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="29"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="36"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
-      <c r="M36" s="23"/>
+      <c r="M36" s="20"/>
       <c r="N36" s="15"/>
       <c r="O36" s="5"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="52"/>
-    </row>
-    <row r="37" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+    </row>
+    <row r="37" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1">
       <c r="A37" s="5">
         <v>23</v>
       </c>
       <c r="B37" s="5"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="29"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="36"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
-      <c r="M37" s="23"/>
+      <c r="M37" s="20"/>
       <c r="N37" s="15"/>
       <c r="O37" s="5"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="52"/>
-    </row>
-    <row r="38" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+    </row>
+    <row r="38" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1">
       <c r="A38" s="5">
         <v>24</v>
       </c>
       <c r="B38" s="5"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="29"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="36"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
-      <c r="M38" s="23"/>
+      <c r="M38" s="20"/>
       <c r="N38" s="15"/>
       <c r="O38" s="5"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="52"/>
-    </row>
-    <row r="39" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+    </row>
+    <row r="39" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1">
       <c r="A39" s="5">
         <v>25</v>
       </c>
       <c r="B39" s="5"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="29"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="36"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
-      <c r="M39" s="23"/>
+      <c r="M39" s="20"/>
       <c r="N39" s="15"/>
       <c r="O39" s="5"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="52"/>
-    </row>
-    <row r="40" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
+    </row>
+    <row r="40" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1">
       <c r="A40" s="5">
         <v>26</v>
       </c>
       <c r="B40" s="5"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="29"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="36"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
-      <c r="M40" s="23"/>
+      <c r="M40" s="20"/>
       <c r="N40" s="15"/>
       <c r="O40" s="5"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="52"/>
-    </row>
-    <row r="41" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
+    </row>
+    <row r="41" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1">
       <c r="A41" s="5">
         <v>27</v>
       </c>
       <c r="B41" s="5"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="29"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="36"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
-      <c r="M41" s="23"/>
+      <c r="M41" s="20"/>
       <c r="N41" s="15"/>
       <c r="O41" s="5"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="52"/>
-    </row>
-    <row r="42" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+    </row>
+    <row r="42" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1">
       <c r="A42" s="5">
         <v>28</v>
       </c>
       <c r="B42" s="5"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="29"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="36"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
       <c r="L42" s="14"/>
-      <c r="M42" s="23"/>
+      <c r="M42" s="20"/>
       <c r="N42" s="15"/>
       <c r="O42" s="5"/>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="52"/>
-    </row>
-    <row r="43" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+    </row>
+    <row r="43" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1">
       <c r="A43" s="5">
         <v>29</v>
       </c>
       <c r="B43" s="5"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="29"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="36"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
-      <c r="M43" s="23"/>
+      <c r="M43" s="20"/>
       <c r="N43" s="15"/>
       <c r="O43" s="5"/>
-      <c r="P43" s="52"/>
-      <c r="Q43" s="52"/>
-      <c r="R43" s="52"/>
-    </row>
-    <row r="44" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
+    </row>
+    <row r="44" spans="1:18" s="16" customFormat="1" ht="22.5" customHeight="1">
       <c r="A44" s="5">
         <v>30</v>
       </c>
       <c r="B44" s="5"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="29"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="36"/>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
-      <c r="M44" s="23"/>
+      <c r="M44" s="20"/>
       <c r="N44" s="15"/>
       <c r="O44" s="5"/>
-      <c r="P44" s="52"/>
-      <c r="Q44" s="52"/>
-      <c r="R44" s="52"/>
-    </row>
-    <row r="45" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="58" t="s">
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
+    </row>
+    <row r="45" spans="1:18" ht="13.5" customHeight="1">
+      <c r="A45" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="58"/>
-      <c r="M45" s="58"/>
-      <c r="N45" s="58"/>
-      <c r="O45" s="58"/>
-      <c r="P45" s="58"/>
-      <c r="Q45" s="58"/>
-      <c r="R45" s="58"/>
-    </row>
-    <row r="46" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="33"/>
+    </row>
+    <row r="46" spans="1:18" ht="13.5" customHeight="1">
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
@@ -2202,7 +2314,7 @@
       <c r="Q46" s="13"/>
       <c r="R46" s="13"/>
     </row>
-    <row r="47" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="13.5" customHeight="1">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -2222,103 +2334,104 @@
       <c r="Q47" s="13"/>
       <c r="R47" s="13"/>
     </row>
-    <row r="48" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="20.25" customHeight="1">
       <c r="A48" s="16"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-    </row>
-    <row r="49" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="O48" s="28"/>
+    </row>
+    <row r="49" spans="1:18" ht="20.25" customHeight="1">
       <c r="A49" s="16"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-    </row>
-    <row r="50" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+    </row>
+    <row r="50" spans="1:18" ht="20.25" customHeight="1">
       <c r="A50" s="16"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" s="16"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="16"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" s="16"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="24"/>
-    </row>
-    <row r="54" spans="1:18" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+    </row>
+    <row r="54" spans="1:18" ht="7.2" customHeight="1">
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="24"/>
       <c r="G54" s="25"/>
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
@@ -2326,76 +2439,114 @@
       <c r="K54" s="25"/>
       <c r="L54" s="25"/>
       <c r="M54" s="25"/>
-      <c r="O54" s="57"/>
-      <c r="P54" s="57"/>
-      <c r="Q54" s="57"/>
-      <c r="R54" s="57"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="30" t="s">
+      <c r="N54" s="28"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="21"/>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" s="29"/>
+      <c r="B55" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
-      <c r="R55" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B56" s="57"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="57"/>
+      <c r="L55" s="57"/>
+      <c r="M55" s="57"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="P55" s="56"/>
+      <c r="Q55" s="56"/>
+      <c r="R55" s="56"/>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
       <c r="R56" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="N58" s="57" t="s">
+    <row r="58" spans="1:18">
+      <c r="N58" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="O58" s="57"/>
-      <c r="P58" s="57"/>
-      <c r="Q58" s="57"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="91">
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:M4"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="A45:R45"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="O54:R54"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
+  <mergeCells count="95">
+    <mergeCell ref="O1:R4"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="F55:M55"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F1:N4"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="A11:C12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C34:G34"/>
     <mergeCell ref="N58:Q58"/>
     <mergeCell ref="P29:R29"/>
     <mergeCell ref="P18:R18"/>
@@ -2412,54 +2563,27 @@
     <mergeCell ref="P39:R39"/>
     <mergeCell ref="P30:R30"/>
     <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="A11:C12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="D48:F54"/>
-    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="A45:R45"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="O55:R55"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N9:Q9"/>
   </mergeCells>
   <conditionalFormatting sqref="B15:R44">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
@@ -2502,6 +2626,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <CDObservaciones xmlns="c8a8a7a3-a3b1-4e8b-b48d-36501fb7376d" xsi:nil="true"/>
@@ -2524,15 +2657,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2874,6 +2998,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C3E91E2-6B63-4D9A-AC9D-0014964F9A34}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AC43855-3D69-492D-9412-3B3EA66A42E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -2889,14 +3021,6 @@
     <ds:schemaRef ds:uri="a426d1fd-150c-44ec-b8f9-cb13d9456d58"/>
     <ds:schemaRef ds:uri="b7e46f94-18c2-41c1-933b-0f101e4b59bf"/>
     <ds:schemaRef ds:uri="4ba4545f-4fd5-4ba1-b183-48a49ec82150"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C3E91E2-6B63-4D9A-AC9D-0014964F9A34}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
